--- a/接口测试/停哪儿接口测试用例.xlsx
+++ b/接口测试/停哪儿接口测试用例.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="物业方" sheetId="1" r:id="rId1"/>
     <sheet name="抢租客" sheetId="2" r:id="rId2"/>
     <sheet name="平台方" sheetId="3" r:id="rId3"/>
+    <sheet name="出租方login" sheetId="4" r:id="rId4"/>
+    <sheet name="出租方lessor" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="387">
   <si>
     <t>case_id</t>
   </si>
@@ -1287,12 +1289,432 @@
   <si>
     <t>审核成功</t>
   </si>
+  <si>
+    <t>module_name</t>
+  </si>
+  <si>
+    <t>test_type</t>
+  </si>
+  <si>
+    <t>api_uri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_desc</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/login?uname=出租方1&amp;upass=123&amp;imgcode=0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租方登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessor</t>
+  </si>
+  <si>
+    <t>api_login_02</t>
+  </si>
+  <si>
+    <t>抢租客登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_login_03</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>api_login_04</t>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_login_06</t>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/login?uname=&amp;upass=123&amp;imgcode=0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无用户名登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_login_07</t>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/login?uname=出租方1&amp;upass=&amp;imgcode=0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_login_08</t>
+  </si>
+  <si>
+    <t>出租方无验证码登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_uri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_login_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/login?uname=抢租客0&amp;upass=123&amp;imgcode=0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tenan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/login?uname=物业0&amp;upass=123&amp;imgcode=0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/login?uname=pt&amp;upass=123&amp;imgcode=0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nouserinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租方无密码登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nouserinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/login?uname=出租方1&amp;upass=123&amp;imgcode=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noimgcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/admin/auditsManagement/parkinginformation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加车位成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=123
+parkingstatus=1
+uid=6ade98f4-a14c-4bf0-a993-8ca936030245
+parkingsizeid=1
+locationid=4006
+detailslocation=第五国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_02</t>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/admin/auditsManagement/parkinginformation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有车位号添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=
+parkingstatus=1
+uid=6ade98f4-a14c-4bf0-a993-8ca936030245
+parkingsizeid=1
+locationid=4006
+detailslocation=第五国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_03</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有状态值添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=123
+parkingstatus=
+uid=6ade98f4-a14c-4bf0-a993-8ca936030245
+parkingsizeid=1
+locationid=4006
+detailslocation=第五国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_04</t>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有uid添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=123
+parkingstatus=1
+uid=
+parkingsizeid=1
+locationid=4006
+detailslocation=第五国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_05</t>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有车位大小id添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=123
+parkingstatus=1
+uid=6ade98f4-a14c-4bf0-a993-8ca936030245
+parkingsizeid=
+locationid=4006
+detailslocation=第五国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_06</t>
+  </si>
+  <si>
+    <t>没有详细地址添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=123
+parkingstatus=1
+uid=6ade98f4-a14c-4bf0-a993-8ca936030245
+parkingsizeid=1
+locationid=4006
+detailslocation=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_07</t>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/admin/auditsManagement/parkinginformation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位号非数字字符添加加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=w#i
+parkingstatus=1
+uid=6ade98f4-a14c-4bf0-a993-8ca936030245
+parkingsizeid=1
+locationid=4006
+detailslocation=第五国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_08</t>
+  </si>
+  <si>
+    <t>车位大小id为非数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=123
+parkingstatus=1
+uid=6ade98f4-a14c-4bf0-a993-8ca936030245
+parkingsizeid=YY
+locationid=4007
+detailslocation=第五国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_09</t>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/admin/auditsManagement/parkinginformation/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位位置id小于4006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=123
+parkingstatus=1
+uid=6ade98f4-a14c-4bf0-a993-8ca936030245
+parkingsizeid=1
+locationid=4005
+detailslocation=第五国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_lessor_add_stall_10</t>
+  </si>
+  <si>
+    <t>lessor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位位置id为非数字字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parkingnumber=123
+parkingstatus=1
+uid=6ade98f4-a14c-4bf0-a993-8ca936030245
+parkingsizeid=1
+locationid=iuh
+detailslocation=第五国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_query_order_info_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/admin/Orders/OrdersController/ByWay/?limit=5&amp;pageNow=1&amp;way=status&amp;word=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询订单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕C100003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_query_comment_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/SharedParkingPlace/admin/parkingremark/ParkingremarkController/?parkingid=58575&amp;pageNow=1&amp;limit=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看车位评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位干净整洁</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1327,6 +1749,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1354,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1406,6 +1835,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1714,7 +2157,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2506,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2942,7 +3385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3421,4 +3864,641 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="23" customWidth="1"/>
+    <col min="2" max="3" width="16.125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="48.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="21" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="21" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="48.25" style="25" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="25" customWidth="1"/>
+    <col min="6" max="6" width="28" style="25" customWidth="1"/>
+    <col min="7" max="7" width="52.875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="24" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="21" customFormat="1" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="21" customFormat="1" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="21" customFormat="1" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G20" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>